--- a/cnn/benchmark_results/AMD.xlsx
+++ b/cnn/benchmark_results/AMD.xlsx
@@ -488,28 +488,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09830143540669857</v>
+        <v>0.07925837320574168</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01015138717800627</v>
+        <v>0.0571336606991099</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>50.7177033492823</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G2" t="n">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>49.2822966507177</v>
       </c>
       <c r="I2" t="n">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
@@ -520,28 +520,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.203732057416268</v>
+        <v>0.2138277511961723</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02362988061352925</v>
+        <v>0.1638255362862986</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>50.47846889952153</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="G3" t="n">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>49.52153110047847</v>
       </c>
       <c r="I3" t="n">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
@@ -552,28 +552,28 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3109090909090909</v>
+        <v>0.3388516746411485</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04532888252801869</v>
+        <v>0.270423344289987</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>50.7177033492823</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="G4" t="n">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>49.2822966507177</v>
       </c>
       <c r="I4" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
@@ -584,28 +584,28 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4054545454545455</v>
+        <v>0.4341626794258376</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06260092137598769</v>
+        <v>0.3309722355647876</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="G5" t="n">
-        <v>205</v>
+        <v>97</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I5" t="n">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
@@ -616,28 +616,28 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5007416267942585</v>
+        <v>0.4838038277511964</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08144654848780399</v>
+        <v>0.3507729492454761</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>50.23923444976076</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>49.76076555023923</v>
       </c>
       <c r="I6" t="n">
-        <v>218</v>
+        <v>110</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
@@ -648,28 +648,28 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6124641148325358</v>
+        <v>0.5583971291866031</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1100535058395424</v>
+        <v>0.3693853512725004</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>49.2822966507177</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G7" t="n">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>50.7177033492823</v>
       </c>
       <c r="I7" t="n">
-        <v>216</v>
+        <v>112</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
@@ -680,28 +680,28 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7125837320574163</v>
+        <v>0.758373205741627</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1266891515849657</v>
+        <v>0.553519065948729</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>50.23923444976076</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G8" t="n">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>49.76076555023923</v>
       </c>
       <c r="I8" t="n">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -712,28 +712,28 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8262440191387561</v>
+        <v>0.8915550239234451</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1392704772367161</v>
+        <v>0.6370890274751109</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>49.76076555023923</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G9" t="n">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>50.23923444976076</v>
       </c>
       <c r="I9" t="n">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
@@ -744,28 +744,28 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.92377990430622</v>
+        <v>0.6639234449760765</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1435083031284179</v>
+        <v>0.2720299179725626</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="I10" t="n">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -776,28 +776,28 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>1.018899521531101</v>
+        <v>0.7181818181818183</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1459632803997856</v>
+        <v>0.322850908344982</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G11" t="n">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="H11" t="n">
+        <v>52.63157894736842</v>
+      </c>
+      <c r="I11" t="n">
+        <v>126</v>
+      </c>
+      <c r="J11" t="n">
         <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>226</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -808,28 +808,28 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>1.108684210526316</v>
+        <v>0.3274880382775125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1515529951684179</v>
+        <v>-0.2192572791499986</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>44.73684210526316</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G12" t="n">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="H12" t="n">
-        <v>100</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="I12" t="n">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
@@ -840,28 +840,28 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>1.176124401913876</v>
+        <v>0.4300478468899521</v>
       </c>
       <c r="D13" t="n">
-        <v>0.134095717708136</v>
+        <v>-0.09432139494227433</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>45.21531100478469</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G13" t="n">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="H13" t="n">
-        <v>100</v>
+        <v>54.78468899521531</v>
       </c>
       <c r="I13" t="n">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
@@ -872,28 +872,28 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>1.229354066985646</v>
+        <v>0.6914114832535886</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1045487063395173</v>
+        <v>0.1628806401408377</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>44.97607655502392</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G14" t="n">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="H14" t="n">
-        <v>100</v>
+        <v>55.02392344497608</v>
       </c>
       <c r="I14" t="n">
-        <v>242</v>
+        <v>140</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
@@ -904,28 +904,28 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>1.305</v>
+        <v>1.054904306220096</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08564243128366526</v>
+        <v>0.5990770928688965</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>47.12918660287082</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G15" t="n">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="H15" t="n">
+        <v>52.87081339712919</v>
+      </c>
+      <c r="I15" t="n">
+        <v>137</v>
+      </c>
+      <c r="J15" t="n">
         <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>237</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -936,28 +936,28 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>1.388181818181818</v>
+        <v>0.987081339712919</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07123137099823797</v>
+        <v>0.3441596885699743</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>42.58373205741627</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G16" t="n">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="H16" t="n">
-        <v>100</v>
+        <v>57.41626794258373</v>
       </c>
       <c r="I16" t="n">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -968,28 +968,28 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>1.454856459330144</v>
+        <v>1.156148325358852</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04641287808809966</v>
+        <v>0.4978827894855169</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>42.3444976076555</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G17" t="n">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="H17" t="n">
-        <v>100</v>
+        <v>57.65550239234449</v>
       </c>
       <c r="I17" t="n">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
@@ -1000,28 +1000,28 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>1.528971291866029</v>
+        <v>1.443181818181818</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02818386801910414</v>
+        <v>0.8404462951315275</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>43.0622009569378</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G18" t="n">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="H18" t="n">
-        <v>100</v>
+        <v>56.9377990430622</v>
       </c>
       <c r="I18" t="n">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -1032,28 +1032,28 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>1.581172248803828</v>
+        <v>1.394856459330144</v>
       </c>
       <c r="D19" t="n">
-        <v>0.008496986375327184</v>
+        <v>0.7296951770467185</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>41.86602870813397</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G19" t="n">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="H19" t="n">
-        <v>100</v>
+        <v>58.13397129186603</v>
       </c>
       <c r="I19" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -1064,28 +1064,28 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>1.639186602870814</v>
+        <v>1.503253588516747</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.01333861161061761</v>
+        <v>0.8540951884039895</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>42.58373205741627</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G20" t="n">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="H20" t="n">
-        <v>100</v>
+        <v>57.41626794258373</v>
       </c>
       <c r="I20" t="n">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
@@ -1096,28 +1096,28 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>1.73322966507177</v>
+        <v>1.721076555023924</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.003228573523704275</v>
+        <v>1.102892166541608</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>43.7799043062201</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G21" t="n">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="H21" t="n">
-        <v>100</v>
+        <v>56.2200956937799</v>
       </c>
       <c r="I21" t="n">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -1128,28 +1128,28 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>1.815047846889953</v>
+        <v>1.725</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.00329985874690441</v>
+        <v>1.036511442795006</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>41.14832535885167</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G22" t="n">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="H22" t="n">
-        <v>100</v>
+        <v>58.85167464114832</v>
       </c>
       <c r="I22" t="n">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -1160,28 +1160,28 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>1.892320574162679</v>
+        <v>1.713181818181819</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0004029120262622585</v>
+        <v>0.9719753082638086</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>40.66985645933015</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G23" t="n">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="H23" t="n">
-        <v>100</v>
+        <v>59.33014354066985</v>
       </c>
       <c r="I23" t="n">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
@@ -1192,28 +1192,28 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>1.958301435406699</v>
+        <v>1.396339712918661</v>
       </c>
       <c r="D24" t="n">
-        <v>0.008609995073739501</v>
+        <v>0.5871789481485373</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>39.71291866028708</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G24" t="n">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="H24" t="n">
-        <v>100</v>
+        <v>60.28708133971292</v>
       </c>
       <c r="I24" t="n">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -1224,28 +1224,28 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>2.050622009569378</v>
+        <v>1.730143540669857</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04822669125191437</v>
+        <v>0.995854138705939</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>41.38755980861244</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G25" t="n">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="H25" t="n">
-        <v>100</v>
+        <v>58.61244019138756</v>
       </c>
       <c r="I25" t="n">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -1256,28 +1256,28 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>2.133038277511961</v>
+        <v>1.684904306220096</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08219094964786949</v>
+        <v>0.9803067716746263</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G26" t="n">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="H26" t="n">
-        <v>100</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="I26" t="n">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
@@ -1288,28 +1288,28 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>2.239114832535885</v>
+        <v>1.866483253588516</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1421857948016086</v>
+        <v>1.17948964522137</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>42.82296650717704</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G27" t="n">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="H27" t="n">
-        <v>100</v>
+        <v>57.17703349282297</v>
       </c>
       <c r="I27" t="n">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
@@ -1320,28 +1320,28 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>2.36377990430622</v>
+        <v>1.986602870813397</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2117614142961636</v>
+        <v>1.322207214839282</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>42.58373205741627</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G28" t="n">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="H28" t="n">
-        <v>100</v>
+        <v>57.41626794258373</v>
       </c>
       <c r="I28" t="n">
-        <v>238</v>
+        <v>148</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
@@ -1352,28 +1352,28 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>2.484688995215311</v>
+        <v>2.058803827751196</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2789149395225826</v>
+        <v>1.3949143573564</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>43.54066985645933</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G29" t="n">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="H29" t="n">
-        <v>100</v>
+        <v>56.45933014354066</v>
       </c>
       <c r="I29" t="n">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -1384,28 +1384,28 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>2.585980861244019</v>
+        <v>2.202153110047846</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3311765200620821</v>
+        <v>1.629685644865186</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>45.21531100478469</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G30" t="n">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="H30" t="n">
-        <v>100</v>
+        <v>54.78468899521531</v>
       </c>
       <c r="I30" t="n">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -1416,28 +1416,28 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>2.678229665071771</v>
+        <v>2.224066985645933</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3822346023159521</v>
+        <v>1.602175258837803</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>44.97607655502392</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G31" t="n">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="H31" t="n">
-        <v>100</v>
+        <v>55.02392344497608</v>
       </c>
       <c r="I31" t="n">
-        <v>237</v>
+        <v>145</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32">
@@ -1448,28 +1448,28 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>2.769569377990431</v>
+        <v>2.318755980861244</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4330431955786247</v>
+        <v>1.664554678750512</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>43.30143540669857</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G32" t="n">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="H32" t="n">
-        <v>100</v>
+        <v>56.69856459330143</v>
       </c>
       <c r="I32" t="n">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
@@ -1480,28 +1480,28 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>2.867153110047846</v>
+        <v>2.565095693779905</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4827133857679249</v>
+        <v>1.898451587094419</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>43.54066985645933</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G33" t="n">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="H33" t="n">
-        <v>100</v>
+        <v>56.45933014354066</v>
       </c>
       <c r="I33" t="n">
-        <v>228</v>
+        <v>147</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
@@ -1512,28 +1512,28 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>2.947631578947368</v>
+        <v>2.751507177033492</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5334157340960657</v>
+        <v>2.090967087874943</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>43.7799043062201</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G34" t="n">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="H34" t="n">
-        <v>100</v>
+        <v>56.2200956937799</v>
       </c>
       <c r="I34" t="n">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
@@ -1544,28 +1544,28 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>3.011913875598086</v>
+        <v>3.197703349282296</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5768040648846359</v>
+        <v>2.683483230787078</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>45.93301435406698</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="G35" t="n">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="H35" t="n">
-        <v>100</v>
+        <v>54.06698564593302</v>
       </c>
       <c r="I35" t="n">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36">
@@ -1576,28 +1576,28 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>3.082822966507177</v>
+        <v>4.348468899521531</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6135067080140276</v>
+        <v>3.943364903527571</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>46.65071770334928</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="G36" t="n">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="H36" t="n">
-        <v>100</v>
+        <v>53.34928229665071</v>
       </c>
       <c r="I36" t="n">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
@@ -1608,28 +1608,28 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>3.144808612440192</v>
+        <v>5.111842105263159</v>
       </c>
       <c r="D37" t="n">
-        <v>0.646197061109592</v>
+        <v>4.824376084717738</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>49.52153110047847</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="G37" t="n">
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="H37" t="n">
-        <v>100</v>
+        <v>50.47846889952153</v>
       </c>
       <c r="I37" t="n">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
@@ -1640,28 +1640,28 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>3.208636363636364</v>
+        <v>4.661794258373206</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6755408557313911</v>
+        <v>4.347942085665356</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>49.76076555023923</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="G38" t="n">
-        <v>189</v>
+        <v>70</v>
       </c>
       <c r="H38" t="n">
-        <v>100</v>
+        <v>50.23923444976076</v>
       </c>
       <c r="I38" t="n">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39">
@@ -1672,28 +1672,28 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>3.285191387559809</v>
+        <v>4.812846889952153</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7125830198102041</v>
+        <v>4.510954001659479</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>51.19617224880383</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G39" t="n">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="H39" t="n">
-        <v>100</v>
+        <v>48.80382775119617</v>
       </c>
       <c r="I39" t="n">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
@@ -1704,28 +1704,28 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>3.356387559808613</v>
+        <v>4.955047846889952</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7510714120391332</v>
+        <v>4.699236206372422</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>53.34928229665071</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="G40" t="n">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="H40" t="n">
-        <v>100</v>
+        <v>46.65071770334928</v>
       </c>
       <c r="I40" t="n">
-        <v>221</v>
+        <v>132</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -1736,28 +1736,28 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>3.418851674641149</v>
+        <v>4.769234449760765</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7854479343517795</v>
+        <v>4.492376136801062</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>52.87081339712919</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="G41" t="n">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="H41" t="n">
-        <v>100</v>
+        <v>47.12918660287082</v>
       </c>
       <c r="I41" t="n">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42">
@@ -1768,28 +1768,28 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>3.503516746411484</v>
+        <v>5.122559808612439</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8387172644930181</v>
+        <v>4.868378502885534</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>53.11004784688996</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="G42" t="n">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="H42" t="n">
-        <v>100</v>
+        <v>46.88995215311004</v>
       </c>
       <c r="I42" t="n">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43">
@@ -1800,28 +1800,28 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>3.574234449760766</v>
+        <v>4.891124401913876</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8864987136181991</v>
+        <v>4.60052254873316</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G43" t="n">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="H43" t="n">
-        <v>100</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="I43" t="n">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
@@ -1832,28 +1832,28 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>3.638014354066986</v>
+        <v>5.183325358851675</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9237220431907728</v>
+        <v>4.941459837916546</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>53.58851674641149</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="G44" t="n">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="H44" t="n">
-        <v>100</v>
+        <v>46.41148325358851</v>
       </c>
       <c r="I44" t="n">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
@@ -1864,28 +1864,28 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>3.689569377990432</v>
+        <v>5.601148325358851</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9483016343663714</v>
+        <v>5.411528592810555</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="G45" t="n">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="H45" t="n">
-        <v>100</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="I45" t="n">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46">
@@ -1896,28 +1896,28 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>3.743875598086125</v>
+        <v>5.777416267942584</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9663415889224185</v>
+        <v>5.657598719379786</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>55.50239234449761</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="G46" t="n">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="H46" t="n">
-        <v>100</v>
+        <v>44.49760765550239</v>
       </c>
       <c r="I46" t="n">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
@@ -1928,28 +1928,28 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>3.792511961722488</v>
+        <v>6.310693779904307</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9803911570618887</v>
+        <v>6.22800143967476</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>53.11004784688996</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="G47" t="n">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="H47" t="n">
-        <v>100</v>
+        <v>46.88995215311004</v>
       </c>
       <c r="I47" t="n">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -1960,28 +1960,28 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>3.825406698564594</v>
+        <v>6.187129186602871</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9770645117549924</v>
+        <v>6.162770769597349</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>54.30622009569378</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="G48" t="n">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="H48" t="n">
-        <v>100</v>
+        <v>45.69377990430622</v>
       </c>
       <c r="I48" t="n">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
@@ -1992,28 +1992,28 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>3.860693779904305</v>
+        <v>6.629593301435405</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9696340969769066</v>
+        <v>6.659093355843434</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>55.98086124401915</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="G49" t="n">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="H49" t="n">
-        <v>100</v>
+        <v>44.01913875598086</v>
       </c>
       <c r="I49" t="n">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
@@ -2024,28 +2024,28 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>3.871531100478469</v>
+        <v>6.877799043062201</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9443181064820436</v>
+        <v>6.950888637868864</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>55.98086124401915</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="G50" t="n">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="H50" t="n">
-        <v>100</v>
+        <v>44.01913875598086</v>
       </c>
       <c r="I50" t="n">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
@@ -2056,28 +2056,28 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>3.877464114832538</v>
+        <v>7.226267942583733</v>
       </c>
       <c r="D51" t="n">
-        <v>0.920190942654977</v>
+        <v>7.338931415301514</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>56.2200956937799</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="G51" t="n">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="H51" t="n">
-        <v>100</v>
+        <v>43.7799043062201</v>
       </c>
       <c r="I51" t="n">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52">
@@ -2088,28 +2088,28 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>3.904808612440192</v>
+        <v>7.385956937799043</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9006459630300824</v>
+        <v>7.534085188652264</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>55.98086124401915</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G52" t="n">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="H52" t="n">
-        <v>100</v>
+        <v>44.01913875598086</v>
       </c>
       <c r="I52" t="n">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
@@ -2120,28 +2120,28 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>3.937129186602871</v>
+        <v>7.706507177033493</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8831123485161314</v>
+        <v>7.887478055885488</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>56.69856459330143</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G53" t="n">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="H53" t="n">
-        <v>100</v>
+        <v>43.30143540669857</v>
       </c>
       <c r="I53" t="n">
-        <v>231</v>
+        <v>147</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
@@ -2152,28 +2152,28 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>3.991387559808614</v>
+        <v>8.069712918660288</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8812780321338988</v>
+        <v>8.320194539675315</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="G54" t="n">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H54" t="n">
-        <v>100</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="I54" t="n">
-        <v>234</v>
+        <v>146</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55">
@@ -2184,28 +2184,28 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>4.029688995215312</v>
+        <v>8.184425837320575</v>
       </c>
       <c r="D55" t="n">
-        <v>0.859415862574066</v>
+        <v>8.484025241226506</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>58.13397129186603</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="G55" t="n">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="H55" t="n">
-        <v>100</v>
+        <v>41.86602870813397</v>
       </c>
       <c r="I55" t="n">
-        <v>235</v>
+        <v>146</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56">
@@ -2216,28 +2216,28 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>4.079186602870812</v>
+        <v>8.722631578947368</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8394046218740155</v>
+        <v>9.112444843189611</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>60.76555023923444</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="G56" t="n">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="H56" t="n">
-        <v>100</v>
+        <v>39.23444976076555</v>
       </c>
       <c r="I56" t="n">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57">
@@ -2248,28 +2248,28 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>4.118492822966508</v>
+        <v>9.348014354066986</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8087564961576856</v>
+        <v>9.758260129353481</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>61.48325358851675</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="G57" t="n">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="H57" t="n">
-        <v>100</v>
+        <v>38.51674641148325</v>
       </c>
       <c r="I57" t="n">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58">
@@ -2280,28 +2280,28 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>4.169354066985646</v>
+        <v>10.01662679425838</v>
       </c>
       <c r="D58" t="n">
-        <v>0.790878710842196</v>
+        <v>10.48695458483114</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>61.96172248803828</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="G58" t="n">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="H58" t="n">
+        <v>38.03827751196172</v>
+      </c>
+      <c r="I58" t="n">
+        <v>137</v>
+      </c>
+      <c r="J58" t="n">
         <v>100</v>
-      </c>
-      <c r="I58" t="n">
-        <v>237</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2312,28 +2312,28 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>4.226387559808613</v>
+        <v>10.10437799043062</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7730953567244101</v>
+        <v>10.59959365405525</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="G59" t="n">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="H59" t="n">
-        <v>100</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="I59" t="n">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60">
@@ -2344,28 +2344,28 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>4.268157894736842</v>
+        <v>10.43165071770335</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7540493350203861</v>
+        <v>10.94089671445582</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="G60" t="n">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="H60" t="n">
-        <v>100</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="I60" t="n">
-        <v>243</v>
+        <v>135</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61">
@@ -2376,28 +2376,28 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>4.278660287081341</v>
+        <v>10.50148325358852</v>
       </c>
       <c r="D61" t="n">
-        <v>0.706202932152349</v>
+        <v>11.05089481535883</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>63.8755980861244</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="G61" t="n">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="H61" t="n">
-        <v>100</v>
+        <v>36.12440191387559</v>
       </c>
       <c r="I61" t="n">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62">
@@ -2408,28 +2408,28 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>4.30062200956938</v>
+        <v>10.58392344497608</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6669130000703157</v>
+        <v>11.16762211887081</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>63.39712918660287</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="G62" t="n">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="H62" t="n">
-        <v>100</v>
+        <v>36.60287081339713</v>
       </c>
       <c r="I62" t="n">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63">
@@ -2440,28 +2440,28 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>4.336531100478469</v>
+        <v>11.15868421052632</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6393271704654517</v>
+        <v>11.77971110258794</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>62.44019138755981</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="G63" t="n">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="H63" t="n">
-        <v>100</v>
+        <v>37.55980861244019</v>
       </c>
       <c r="I63" t="n">
-        <v>240</v>
+        <v>134</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64">
@@ -2472,28 +2472,28 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>4.366555023923445</v>
+        <v>11.32468899521531</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6075899714874423</v>
+        <v>11.97268226050516</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>62.44019138755981</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="G64" t="n">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="H64" t="n">
-        <v>100</v>
+        <v>37.55980861244019</v>
       </c>
       <c r="I64" t="n">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65">
@@ -2504,28 +2504,28 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>4.390956937799046</v>
+        <v>11.79148325358852</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5741064729197465</v>
+        <v>12.458724049451</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>61.96172248803828</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="G65" t="n">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="H65" t="n">
-        <v>100</v>
+        <v>38.03827751196172</v>
       </c>
       <c r="I65" t="n">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66">
@@ -2536,28 +2536,28 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>4.418301435406697</v>
+        <v>12.25543062200957</v>
       </c>
       <c r="D66" t="n">
-        <v>0.538798284517502</v>
+        <v>12.94247553738678</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>61.48325358851675</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="G66" t="n">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="H66" t="n">
-        <v>100</v>
+        <v>38.51674641148325</v>
       </c>
       <c r="I66" t="n">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67">
@@ -2568,28 +2568,28 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>4.451411483253589</v>
+        <v>13.53868421052632</v>
       </c>
       <c r="D67" t="n">
-        <v>0.511141453927525</v>
+        <v>14.29627351242643</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>59.56937799043062</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="G67" t="n">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="H67" t="n">
-        <v>100</v>
+        <v>40.43062200956938</v>
       </c>
       <c r="I67" t="n">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68">
@@ -2600,28 +2600,28 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>4.573253588516745</v>
+        <v>13.79287081339713</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6652617244943781</v>
+        <v>14.61686502796461</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2392344497607655</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="G68" t="n">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="H68" t="n">
-        <v>99.76076555023924</v>
+        <v>40.90909090909091</v>
       </c>
       <c r="I68" t="n">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69">
@@ -2632,28 +2632,28 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>4.510478468899522</v>
+        <v>13.6788995215311</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4766536715015055</v>
+        <v>14.48253717426187</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>59.80861244019139</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="G69" t="n">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="H69" t="n">
-        <v>100</v>
+        <v>40.19138755980861</v>
       </c>
       <c r="I69" t="n">
-        <v>245</v>
+        <v>152</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70">
@@ -2664,28 +2664,28 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>4.661052631578949</v>
+        <v>14.5544019138756</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6430861675281213</v>
+        <v>15.47002530579281</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2392344497607655</v>
+        <v>58.3732057416268</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="G70" t="n">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="H70" t="n">
-        <v>99.76076555023924</v>
+        <v>41.62679425837321</v>
       </c>
       <c r="I70" t="n">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71">
@@ -2696,28 +2696,28 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>4.80787081339713</v>
+        <v>14.73031100478469</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7925287787580741</v>
+        <v>15.7166154556782</v>
       </c>
       <c r="E71" t="n">
-        <v>0.7177033492822966</v>
+        <v>58.3732057416268</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="G71" t="n">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="H71" t="n">
-        <v>99.28229665071771</v>
+        <v>41.62679425837321</v>
       </c>
       <c r="I71" t="n">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72">
@@ -2728,28 +2728,28 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>5.235717703349282</v>
+        <v>15.10107655502392</v>
       </c>
       <c r="D72" t="n">
-        <v>1.466152637969606</v>
+        <v>16.1821233107614</v>
       </c>
       <c r="E72" t="n">
-        <v>2.15311004784689</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="F72" t="n">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="G72" t="n">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="H72" t="n">
-        <v>97.84688995215312</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="I72" t="n">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
@@ -2760,28 +2760,28 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>5.699114832535886</v>
+        <v>15.36849282296651</v>
       </c>
       <c r="D73" t="n">
-        <v>2.164363608937378</v>
+        <v>16.51325272926269</v>
       </c>
       <c r="E73" t="n">
-        <v>3.110047846889952</v>
+        <v>57.65550239234449</v>
       </c>
       <c r="F73" t="n">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="G73" t="n">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="H73" t="n">
-        <v>96.88995215311004</v>
+        <v>42.3444976076555</v>
       </c>
       <c r="I73" t="n">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74">
@@ -2792,28 +2792,28 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>5.790023923444977</v>
+        <v>16.13691387559809</v>
       </c>
       <c r="D74" t="n">
-        <v>2.241285248621737</v>
+        <v>17.41909251155603</v>
       </c>
       <c r="E74" t="n">
-        <v>3.110047846889952</v>
+        <v>56.2200956937799</v>
       </c>
       <c r="F74" t="n">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="G74" t="n">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="H74" t="n">
-        <v>96.88995215311004</v>
+        <v>43.7799043062201</v>
       </c>
       <c r="I74" t="n">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75">
@@ -2824,28 +2824,28 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>5.91444976076555</v>
+        <v>16.76822966507177</v>
       </c>
       <c r="D75" t="n">
-        <v>2.398932826592298</v>
+        <v>18.12856883939444</v>
       </c>
       <c r="E75" t="n">
-        <v>3.588516746411483</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="F75" t="n">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="G75" t="n">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="H75" t="n">
-        <v>96.41148325358851</v>
+        <v>44.73684210526316</v>
       </c>
       <c r="I75" t="n">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76">
@@ -2856,28 +2856,28 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>5.948038277511961</v>
+        <v>17.22368421052632</v>
       </c>
       <c r="D76" t="n">
-        <v>2.425671942526699</v>
+        <v>18.67342709622314</v>
       </c>
       <c r="E76" t="n">
-        <v>3.588516746411483</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="F76" t="n">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="G76" t="n">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="H76" t="n">
-        <v>96.41148325358851</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="I76" t="n">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77">
@@ -2888,28 +2888,28 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>5.9277990430622</v>
+        <v>17.44531100478469</v>
       </c>
       <c r="D77" t="n">
-        <v>2.368586187585872</v>
+        <v>18.930267631117</v>
       </c>
       <c r="E77" t="n">
-        <v>3.110047846889952</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="F77" t="n">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="G77" t="n">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="H77" t="n">
-        <v>96.88995215311004</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="I77" t="n">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78">
@@ -2920,28 +2920,28 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>6.064114832535886</v>
+        <v>17.67282296650718</v>
       </c>
       <c r="D78" t="n">
-        <v>2.544038801106206</v>
+        <v>19.19280599953447</v>
       </c>
       <c r="E78" t="n">
-        <v>3.588516746411483</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="F78" t="n">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="G78" t="n">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="H78" t="n">
-        <v>96.41148325358851</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="I78" t="n">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79">
@@ -2952,28 +2952,28 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>6.119354066985647</v>
+        <v>17.88777511961722</v>
       </c>
       <c r="D79" t="n">
-        <v>2.612906778477275</v>
+        <v>19.44017347400876</v>
       </c>
       <c r="E79" t="n">
-        <v>3.588516746411483</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="F79" t="n">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="G79" t="n">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="H79" t="n">
-        <v>96.41148325358851</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="I79" t="n">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80">
@@ -2984,28 +2984,28 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>6.125287081339713</v>
+        <v>18.08983253588517</v>
       </c>
       <c r="D80" t="n">
-        <v>2.610161470781965</v>
+        <v>19.67299367501452</v>
       </c>
       <c r="E80" t="n">
-        <v>3.588516746411483</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="F80" t="n">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="G80" t="n">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="H80" t="n">
-        <v>96.41148325358851</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="I80" t="n">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81">
@@ -3016,28 +3016,28 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>6.095909090909092</v>
+        <v>18.67887559808612</v>
       </c>
       <c r="D81" t="n">
-        <v>2.547066006870977</v>
+        <v>20.33223859130547</v>
       </c>
       <c r="E81" t="n">
-        <v>3.588516746411483</v>
+        <v>53.58851674641149</v>
       </c>
       <c r="F81" t="n">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="G81" t="n">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="H81" t="n">
-        <v>96.41148325358851</v>
+        <v>46.41148325358851</v>
       </c>
       <c r="I81" t="n">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82">
@@ -3048,28 +3048,28 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>6.065430622009568</v>
+        <v>18.91289473684211</v>
       </c>
       <c r="D82" t="n">
-        <v>2.460194653366763</v>
+        <v>20.59610130414805</v>
       </c>
       <c r="E82" t="n">
-        <v>3.588516746411483</v>
+        <v>53.58851674641149</v>
       </c>
       <c r="F82" t="n">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="G82" t="n">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="H82" t="n">
-        <v>96.41148325358851</v>
+        <v>46.41148325358851</v>
       </c>
       <c r="I82" t="n">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83">
@@ -3080,28 +3080,28 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>6.046196172248805</v>
+        <v>19.27519138755981</v>
       </c>
       <c r="D83" t="n">
-        <v>2.370054474669022</v>
+        <v>20.99477267147562</v>
       </c>
       <c r="E83" t="n">
-        <v>3.588516746411483</v>
+        <v>53.34928229665071</v>
       </c>
       <c r="F83" t="n">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="G83" t="n">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="H83" t="n">
-        <v>96.41148325358851</v>
+        <v>46.65071770334928</v>
       </c>
       <c r="I83" t="n">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84">
@@ -3112,28 +3112,28 @@
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>6.015502392344496</v>
+        <v>19.52047846889952</v>
       </c>
       <c r="D84" t="n">
-        <v>2.266835860142542</v>
+        <v>21.26252005599046</v>
       </c>
       <c r="E84" t="n">
-        <v>3.588516746411483</v>
+        <v>53.34928229665071</v>
       </c>
       <c r="F84" t="n">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="H84" t="n">
-        <v>96.41148325358851</v>
+        <v>46.65071770334928</v>
       </c>
       <c r="I84" t="n">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85">
@@ -3144,28 +3144,28 @@
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>6.011913875598085</v>
+        <v>19.77148325358852</v>
       </c>
       <c r="D85" t="n">
-        <v>2.192171257816706</v>
+        <v>21.53893266996457</v>
       </c>
       <c r="E85" t="n">
-        <v>3.588516746411483</v>
+        <v>53.34928229665071</v>
       </c>
       <c r="F85" t="n">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="H85" t="n">
-        <v>96.41148325358851</v>
+        <v>46.65071770334928</v>
       </c>
       <c r="I85" t="n">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86">
@@ -3176,28 +3176,28 @@
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>6.04523923444976</v>
+        <v>20.0361004784689</v>
       </c>
       <c r="D86" t="n">
-        <v>2.175855809256606</v>
+        <v>21.82619647498056</v>
       </c>
       <c r="E86" t="n">
-        <v>3.588516746411483</v>
+        <v>53.34928229665071</v>
       </c>
       <c r="F86" t="n">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="G86" t="n">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="H86" t="n">
-        <v>96.41148325358851</v>
+        <v>46.65071770334928</v>
       </c>
       <c r="I86" t="n">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87">
@@ -3208,28 +3208,28 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>6.001937799043064</v>
+        <v>20.40260765550239</v>
       </c>
       <c r="D87" t="n">
-        <v>2.041615938295047</v>
+        <v>22.23009214950655</v>
       </c>
       <c r="E87" t="n">
-        <v>3.588516746411483</v>
+        <v>53.11004784688996</v>
       </c>
       <c r="F87" t="n">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="H87" t="n">
-        <v>96.41148325358851</v>
+        <v>46.88995215311004</v>
       </c>
       <c r="I87" t="n">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88">
@@ -3240,28 +3240,28 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>5.906220095693779</v>
+        <v>20.65956937799043</v>
       </c>
       <c r="D88" t="n">
-        <v>1.828928455677825</v>
+        <v>22.51764584180088</v>
       </c>
       <c r="E88" t="n">
-        <v>3.349282296650718</v>
+        <v>53.11004784688996</v>
       </c>
       <c r="F88" t="n">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="H88" t="n">
-        <v>96.65071770334929</v>
+        <v>46.88995215311004</v>
       </c>
       <c r="I88" t="n">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89">
@@ -3272,28 +3272,28 @@
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>5.88566985645933</v>
+        <v>20.92361244019139</v>
       </c>
       <c r="D89" t="n">
-        <v>1.705148434603867</v>
+        <v>22.81225013866749</v>
       </c>
       <c r="E89" t="n">
-        <v>3.349282296650718</v>
+        <v>53.11004784688996</v>
       </c>
       <c r="F89" t="n">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="H89" t="n">
-        <v>96.65071770334929</v>
+        <v>46.88995215311004</v>
       </c>
       <c r="I89" t="n">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90">
@@ -3304,28 +3304,28 @@
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>5.803325358851675</v>
+        <v>21.20476076555024</v>
       </c>
       <c r="D90" t="n">
-        <v>1.479368617822522</v>
+        <v>23.1306731211471</v>
       </c>
       <c r="E90" t="n">
-        <v>3.110047846889952</v>
+        <v>53.11004784688996</v>
       </c>
       <c r="F90" t="n">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="G90" t="n">
-        <v>166</v>
+        <v>6</v>
       </c>
       <c r="H90" t="n">
-        <v>96.88995215311004</v>
+        <v>46.88995215311004</v>
       </c>
       <c r="I90" t="n">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91">
@@ -3336,28 +3336,28 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>5.644736842105263</v>
+        <v>21.47899521531101</v>
       </c>
       <c r="D91" t="n">
-        <v>1.116962726000142</v>
+        <v>23.43889501969735</v>
       </c>
       <c r="E91" t="n">
-        <v>2.631578947368421</v>
+        <v>53.11004784688996</v>
       </c>
       <c r="F91" t="n">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="G91" t="n">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
-        <v>97.36842105263158</v>
+        <v>46.88995215311004</v>
       </c>
       <c r="I91" t="n">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
